--- a/pa5/results.xlsx
+++ b/pa5/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -269,7 +269,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,6 +331,15 @@
       <c r="G2" s="0" t="n">
         <v>256</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>2031.25977516174</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>2646.74595832825</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>3211.65990829468</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -355,6 +364,15 @@
         <f aca="false">G2/2</f>
         <v>128</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>843.760013580322</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1425.20880699158</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2007.30991363525</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -379,6 +397,15 @@
         <f aca="false">G3/2</f>
         <v>64</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>54.069995880127</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>441.136021614075</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>828.059911727905</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -402,6 +429,15 @@
       <c r="G5" s="0" t="n">
         <f aca="false">G4/2</f>
         <v>32</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>18.9299583435059</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>33.2371807098389</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>55.1700592041016</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,6 +463,15 @@
         <f aca="false">G5/2</f>
         <v>16</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>21.3100910186768</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>36.8466138839722</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>80.5602073669434</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -451,6 +496,15 @@
         <f aca="false">G6/2</f>
         <v>8</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>10.699987411499</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>36.0692024230957</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>62.420129776001</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -475,6 +529,15 @@
         <f aca="false">G7/2</f>
         <v>4</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>14.6801471710205</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>47.2478352340997</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>70.8098411560059</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -499,6 +562,15 @@
         <f aca="false">G8/2</f>
         <v>2</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>17.3499584197998</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>42.6344108581543</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>64.4698143005371</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -522,6 +594,15 @@
       <c r="G10" s="0" t="n">
         <f aca="false">G9/2</f>
         <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>11.5699768066406</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>36.6743755340576</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>60.7500076293945</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -669,8 +750,8 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,10 +1684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.007129907608032</v>
+        <v>7.129907608032</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.060432698726654</v>
+        <v>60.432698726654</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.194530010223389</v>
+        <v>194.530010223389</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,13 +1782,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.00967001914978</v>
+        <v>9.67001914978</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.025607528686524</v>
+        <v>25.607528686524</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.073980093002319</v>
+        <v>73.980093002319</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.00393009185791</v>
+        <v>3.93009185791</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.017805030345917</v>
+        <v>17.805030345917</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.065490007400513</v>
+        <v>65.490007400513</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,15 +1846,20 @@
         <v>5</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.015789985656738</v>
+        <v>15.789985656738</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.021090475082398</v>
+        <v>21.090475082398</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.039819955825806</v>
-      </c>
-    </row>
+        <v>39.819955825806</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1793,7 +1879,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,6 +1935,15 @@
       <c r="F2" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>17.8401470184326</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>794.189209938049</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1568.09997558594</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1870,6 +1965,15 @@
       <c r="F3" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>19.7298526763916</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>799.037799835205</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1577.3298740387</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -1891,6 +1995,15 @@
       <c r="F4" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1608.69979858398</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2382.74398803711</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3154.45017814636</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -1912,6 +2025,15 @@
       <c r="F5" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>15.0599479675293</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>915.62840461731</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1822.56007194519</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1933,6 +2055,15 @@
       <c r="F6" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>8.00991058349609</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>915.284991264343</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2061.74993515015</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1954,6 +2085,15 @@
       <c r="F7" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>23.0998992919922</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>804.912595748901</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1582.75008201599</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1975,6 +2115,15 @@
       <c r="F8" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>22.2799777984619</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>952.291994094849</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1735.06999015808</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1996,6 +2145,15 @@
       <c r="F9" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1.53017044067383</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>936.017570495605</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2033.28990936279</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2017,6 +2175,15 @@
       <c r="F10" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>5.72991371154785</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>737.145190238953</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1815.0098323822</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2038,6 +2205,15 @@
       <c r="F11" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>28.2700061798096</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>547.769417762756</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1140.24996757507</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2059,6 +2235,15 @@
       <c r="F12" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>27.630090713501</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1098.51382732391</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2518.82004737854</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2078,6 +2263,15 @@
       </c>
       <c r="F13" s="0" t="n">
         <v>32</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>67.5899982452393</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>846.196203231812</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1619.45986747742</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,6 +2294,15 @@
       <c r="F14" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>67.7700042724609</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>847.862205505371</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1624.53985214233</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2121,6 +2324,15 @@
       <c r="F15" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1655.82990646362</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2449.77618694305</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>3210.08014678955</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -2142,6 +2354,15 @@
       <c r="F16" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>66.5299892425537</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>991.512398719788</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1876.9998550415</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -2163,6 +2384,15 @@
       <c r="F17" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>50.5900382995606</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>963.794946670532</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>2108.36005210876</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -2184,6 +2414,15 @@
       <c r="F18" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>291.90993309021</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>877.932209968567</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1773.03004264832</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2205,6 +2444,15 @@
       <c r="F19" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>295.429944992065</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1015.20217418671</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1801.07998847961</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -2226,6 +2474,15 @@
       <c r="F20" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>53.380012512207</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1004.17576313019</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>2096.77982330322</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -2247,6 +2504,15 @@
       <c r="F21" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>59.7701072692871</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>858.202991485596</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1869.05002593994</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -2268,6 +2534,15 @@
       <c r="F22" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>67.3899650573731</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>593.608016967773</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1179.36015129089</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -2288,6 +2563,15 @@
       </c>
       <c r="F23" s="0" t="n">
         <v>32</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>77.7900218963623</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1163.39221477509</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>2573.98009300232</v>
       </c>
     </row>
   </sheetData>
@@ -2306,15 +2590,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,6 +2659,15 @@
       <c r="G2" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>15.5699253082275</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>24.1530132293701</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>32.5298309326172</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -2395,6 +2692,15 @@
       <c r="G3" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>194.089889526367</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>232.184796333313</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>245.990037918091</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -2419,6 +2725,15 @@
       <c r="G4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>23.05006980896</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>250.745792388916</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>258.529901504517</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -2443,6 +2758,15 @@
       <c r="G5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>183.379888534546</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>273.396582603455</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>482.099771499634</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2467,6 +2791,15 @@
       <c r="G6" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>185.509920120239</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>247.658796310425</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>424.54981803894</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2491,6 +2824,15 @@
       <c r="G7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>17.650127410889</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>267.981431922134</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>510.190010070801</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -2515,6 +2857,15 @@
       <c r="G8" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>196.589946746826</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>342.121782302856</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>473.199844360352</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -2539,6 +2890,15 @@
       <c r="G9" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>207.839965820312</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>354.256128653502</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>456.249952316284</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2563,6 +2923,15 @@
       <c r="G10" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>172.87015914917</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>683.332996368408</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>997.380018234253</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2587,6 +2956,15 @@
       <c r="G11" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>22.9601860046387</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>196.866216659546</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>494.930028915405</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2611,7 +2989,19 @@
       <c r="G12" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
+      <c r="H12" s="0" t="n">
+        <v>19.7699069976807</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>85.6729888916016</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>491.189956665039</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2631,12 +3021,15 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,6 +3080,15 @@
       <c r="F2" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -2708,6 +3110,15 @@
       <c r="F3" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -2729,6 +3140,15 @@
       <c r="F4" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -2750,6 +3170,15 @@
       <c r="F5" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2771,6 +3200,15 @@
       <c r="F6" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2792,6 +3230,15 @@
       <c r="F7" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -2813,6 +3260,15 @@
       <c r="F8" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -2834,6 +3290,15 @@
       <c r="F9" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2855,6 +3320,15 @@
       <c r="F10" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2876,6 +3350,15 @@
       <c r="F11" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2897,6 +3380,15 @@
       <c r="F12" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2916,6 +3408,15 @@
       </c>
       <c r="F13" s="0" t="n">
         <v>32</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,6 +3439,15 @@
       <c r="F14" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2959,6 +3469,15 @@
       <c r="F15" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -2980,6 +3499,15 @@
       <c r="F16" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -3001,6 +3529,15 @@
       <c r="F17" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3022,6 +3559,15 @@
       <c r="F18" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3043,6 +3589,15 @@
       <c r="F19" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3064,6 +3619,15 @@
       <c r="F20" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3085,6 +3649,15 @@
       <c r="F21" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3106,6 +3679,15 @@
       <c r="F22" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3126,6 +3708,15 @@
       </c>
       <c r="F23" s="0" t="n">
         <v>32</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3738,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3209,6 +3800,15 @@
       <c r="G2" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3233,6 +3833,15 @@
       <c r="G3" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3257,6 +3866,15 @@
       <c r="G4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -3281,6 +3899,15 @@
       <c r="G5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3305,6 +3932,15 @@
       <c r="G6" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3329,6 +3965,15 @@
       <c r="G7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3353,6 +3998,15 @@
       <c r="G8" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3377,6 +4031,15 @@
       <c r="G9" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3401,6 +4064,15 @@
       <c r="G10" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3425,6 +4097,15 @@
       <c r="G11" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3448,6 +4129,15 @@
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pa5/results.xlsx
+++ b/pa5/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -170,9 +170,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -268,8 +272,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,6 +811,15 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>32.769918441773</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>335.32452583313</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>630.890130996704</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -828,6 +841,15 @@
         <f aca="false">F2*2</f>
         <v>2</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>663.040161132813</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>968.209981918335</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1274.29986000061</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -849,6 +871,15 @@
         <f aca="false">F3*2</f>
         <v>4</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1306.32996559143</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1612.82947063446</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1920.07994651794</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -870,6 +901,15 @@
         <f aca="false">F4*2</f>
         <v>8</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>1952.04997062683</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2259.20902490616</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2565.73987007141</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -891,6 +931,15 @@
         <f aca="false">F5*2</f>
         <v>16</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>2597.69988059998</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2900.93150138855</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3206.75992965698</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -911,6 +960,15 @@
       <c r="F7" s="0" t="n">
         <f aca="false">F6*2</f>
         <v>32</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>3238.44003677368</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>3541.1759853363</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3842.04006195068</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,6 +991,15 @@
         <f aca="false">F7*2</f>
         <v>64</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>3873.26002120972</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4174.93050098419</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>4476.22013092041</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -954,6 +1021,15 @@
         <f aca="false">F8*2</f>
         <v>128</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>4508.33010673523</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4814.184486866</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>5118.58010292053</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -975,6 +1051,15 @@
         <f aca="false">F9*2</f>
         <v>256</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1952.04997062683</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>5455.12903928757</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>5760.32996177673</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -996,6 +1081,15 @@
         <f aca="false">F10*2</f>
         <v>512</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>5792.35005378723</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>6098.58801364899</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6403.68008613586</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1017,6 +1111,15 @@
         <f aca="false">F11*2</f>
         <v>1024</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>6435.86015701294</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6738.95499706268</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>7039.37005996704</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -1038,6 +1141,15 @@
         <f aca="false">F12*2</f>
         <v>2048</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>7071.64001464844</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>7394.2489862442</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>7712.48006820679</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -1059,6 +1171,15 @@
         <f aca="false">F13*2</f>
         <v>4096</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>12.120008468628</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>828.434014320373</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4131.41012191772</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -1080,6 +1201,15 @@
         <f aca="false">F14*2</f>
         <v>8192</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>13.409852981567</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>94.7424888610841</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>408.210039138794</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -1101,6 +1231,15 @@
         <f aca="false">F15*2</f>
         <v>16384</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>70.460081100464</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>321.899962425232</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>755.009889602661</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -1122,6 +1261,15 @@
         <f aca="false">F16*2</f>
         <v>32768</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>135.660171508789</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>329.028987884521</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>734.779834747314</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -1143,6 +1291,15 @@
         <f aca="false">F17*2</f>
         <v>65536</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>198.559999465942</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>514.699494838715</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1594.43998336792</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1164,6 +1321,15 @@
         <f aca="false">F18*2</f>
         <v>131072</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>681.62989616394</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>2577.68696546555</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>4452.00991630554</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1185,6 +1351,15 @@
         <f aca="false">F19*2</f>
         <v>262144</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>2349.03001785278</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>6414.03352022171</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>9847.68009185791</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1206,6 +1381,15 @@
         <f aca="false">F20*2</f>
         <v>524288</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>859.859943389893</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>5509.45997238159</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>9513.42988014221</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1227,6 +1411,15 @@
         <f aca="false">F21*2</f>
         <v>1048576</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>1253.52001190186</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>8657.54450559617</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>9985.61000823975</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1246,6 +1439,15 @@
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>72.200059890747</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>390.140509605408</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>682.560205459595</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,6 +1470,15 @@
         <f aca="false">F23*2</f>
         <v>2</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>713.850021362305</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1012.22800016403</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1310.2297782898</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1289,6 +1500,15 @@
         <f aca="false">F24*2</f>
         <v>4</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>1341.23992919922</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1666.33347272873</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1970.53003311157</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1310,6 +1530,15 @@
         <f aca="false">F25*2</f>
         <v>8</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>2001.76000595093</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>2300.62601566315</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>2599.03001785278</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1331,6 +1560,15 @@
         <f aca="false">F26*2</f>
         <v>16</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>2630.39994239807</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>2943.14149618149</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>3241.80006980896</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1351,6 +1589,15 @@
       <c r="F28" s="0" t="n">
         <f aca="false">F27*2</f>
         <v>32</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>3272.88007736206</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>3596.16144895554</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>3900.21991729736</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,6 +1620,15 @@
         <f aca="false">F28*2</f>
         <v>64</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>3931.39004707336</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>4229.26499843597</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>4528.00011634827</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1394,6 +1650,15 @@
         <f aca="false">F29*2</f>
         <v>128</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>4559.62014198303</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>4858.29300880432</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>5155.90000152588</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1415,6 +1680,15 @@
         <f aca="false">F30*2</f>
         <v>256</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>2001.76000595093</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>5499.45101737976</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>5804.91995811462</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1436,6 +1710,15 @@
         <f aca="false">F31*2</f>
         <v>512</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>5836.52019500732</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>6136.09451055527</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>6436.56992912293</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1457,6 +1740,15 @@
         <f aca="false">F32*2</f>
         <v>1024</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>6468.77002716064</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>6799.06647205353</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>7072.31998443604</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1478,6 +1770,15 @@
         <f aca="false">F33*2</f>
         <v>2048</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>7105.01003265381</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>7436.25700473785</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>7745.39995193481</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1499,6 +1800,15 @@
         <f aca="false">F34*2</f>
         <v>4096</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>76.8301486969</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>7436.25700473785</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>7016.12997055054</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1520,6 +1830,15 @@
         <f aca="false">F35*2</f>
         <v>8192</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>98.489999771118</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1429.53900098801</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>486.910104751587</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1541,6 +1860,15 @@
         <f aca="false">F36*2</f>
         <v>16384</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>240.839958190918</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>523.811483383179</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>934.570074081421</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1562,6 +1890,15 @@
         <f aca="false">F37*2</f>
         <v>32768</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>403.479814529419</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>611.272013187408</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1029.65998649597</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1583,6 +1920,15 @@
         <f aca="false">F38*2</f>
         <v>65536</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>703.559875488281</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1056.29050731659</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>2162.18018531799</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1604,6 +1950,15 @@
         <f aca="false">F39*2</f>
         <v>131072</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>1698.82988929749</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>3358.64598751068</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>5194.98991966248</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1625,6 +1980,15 @@
         <f aca="false">F40*2</f>
         <v>262144</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>3420.86005210876</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>7474.20052289963</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>8939.97001647949</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1646,6 +2010,15 @@
         <f aca="false">F41*2</f>
         <v>524288</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>2570.61982154846</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>7312.37347126007</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>9014.33992385864</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1666,6 +2039,15 @@
       <c r="F43" s="0" t="n">
         <f aca="false">F42*2</f>
         <v>1048576</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>3583.43982696533</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>8308.83002281189</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>9985.61000823975</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4541,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4209,6 +4591,9 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -4230,6 +4615,9 @@
         <f aca="false">F2*2</f>
         <v>2</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4251,6 +4639,9 @@
         <f aca="false">F3*2</f>
         <v>4</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -4272,6 +4663,9 @@
         <f aca="false">F4*2</f>
         <v>8</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4293,6 +4687,9 @@
         <f aca="false">F5*2</f>
         <v>16</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4313,6 +4710,9 @@
       <c r="F7" s="0" t="n">
         <f aca="false">F6*2</f>
         <v>32</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,6 +4735,9 @@
         <f aca="false">F7*2</f>
         <v>64</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -4356,6 +4759,9 @@
         <f aca="false">F8*2</f>
         <v>128</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -4377,6 +4783,9 @@
         <f aca="false">F9*2</f>
         <v>256</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -4398,6 +4807,9 @@
         <f aca="false">F10*2</f>
         <v>512</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -4419,6 +4831,9 @@
         <f aca="false">F11*2</f>
         <v>1024</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -4440,6 +4855,9 @@
         <f aca="false">F12*2</f>
         <v>2048</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -4461,6 +4879,9 @@
         <f aca="false">F13*2</f>
         <v>4096</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -4482,6 +4903,9 @@
         <f aca="false">F14*2</f>
         <v>8192</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>521</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -4503,6 +4927,9 @@
         <f aca="false">F15*2</f>
         <v>16384</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>833</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -4524,6 +4951,9 @@
         <f aca="false">F16*2</f>
         <v>32768</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>1405</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -4545,6 +4975,9 @@
         <f aca="false">F17*2</f>
         <v>65536</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>2601</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -4566,6 +4999,9 @@
         <f aca="false">F18*2</f>
         <v>131072</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>4941</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -4587,8 +5023,11 @@
         <f aca="false">F19*2</f>
         <v>262144</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="n">
+        <v>9673</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>7</v>
       </c>
@@ -4608,8 +5047,11 @@
         <f aca="false">F20*2</f>
         <v>524288</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="1" t="n">
+        <v>19085</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>7</v>
       </c>
@@ -4628,6 +5070,9 @@
       <c r="F22" s="0" t="n">
         <f aca="false">F21*2</f>
         <v>1048576</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>37909</v>
       </c>
     </row>
   </sheetData>
